--- a/biology/Botanique/Salix_caspica/Salix_caspica.xlsx
+++ b/biology/Botanique/Salix_caspica/Salix_caspica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix caspica, le saule de la Caspienne, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un gros arbuste avec des feuilles de 5 à 8 centimètres de long. L'espèce se trouve de la Russie européenne à l'est de la Sibérie et à l'ouest de la Chine (Arménie, Kazakhstan, Mongolie, est de la Sibérie et province du Xinjiang en Chine[1]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix caspica, le saule de la Caspienne, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un gros arbuste avec des feuilles de 5 à 8 centimètres de long. L'espèce se trouve de la Russie européenne à l'est de la Sibérie et à l'ouest de la Chine (Arménie, Kazakhstan, Mongolie, est de la Sibérie et province du Xinjiang en Chine).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix caspica est un arbuste qui peut monter à 5 mètres de haut. Ses branches sont minces, jaunâtres et brillantes. Les bourgeons pointus atteignent une longueur de 5 mm. Les feuilles jeunes sont légèrement duveteuses et deviennent glabres avec l'âge[2]. La floraison a lieu d'avril à mai, avant l'apparition des feuilles ; les graines sont mûres en juin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix caspica est un arbuste qui peut monter à 5 mètres de haut. Ses branches sont minces, jaunâtres et brillantes. Les bourgeons pointus atteignent une longueur de 5 mm. Les feuilles jeunes sont légèrement duveteuses et deviennent glabres avec l'âge. La floraison a lieu d'avril à mai, avant l'apparition des feuilles ; les graines sont mûres en juin.
 </t>
         </is>
       </c>
